--- a/606_trade discount cn.xlsx
+++ b/606_trade discount cn.xlsx
@@ -419,38 +419,40 @@
         <v>GrandTotal</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>DEEDWANIA MEDICOS[RJ0004]</v>
       </c>
       <c r="B2" t="str">
         <v>23/606/T1/1853</v>
       </c>
-      <c r="C2" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D2" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E2" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>DEEDWANIA MEDICOS[RJ0004]</v>
       </c>
       <c r="B3" t="str">
         <v>23/606/T1/1854</v>
       </c>
-      <c r="C3" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D3" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E3" t="str">
-        <v>61</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -461,14 +463,15 @@
       <c r="B4" t="str">
         <v>23/606/T1/1855</v>
       </c>
-      <c r="C4" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D4" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E4" t="str">
-        <v>104</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -479,1034 +482,1095 @@
       <c r="B5" t="str">
         <v>23/606/T1/1856</v>
       </c>
-      <c r="C5" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D5" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E5" t="str">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
       <c r="A6" t="str">
         <v>NAVJEEVAN DRUG AGENCIES[RJ0032]</v>
       </c>
       <c r="B6" t="str">
         <v>23/606/T1/1857</v>
       </c>
-      <c r="C6" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D6" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E6" t="str">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
         <v>NAVJEEVAN DRUG AGENCIES[RJ0032]</v>
       </c>
       <c r="B7" t="str">
         <v>23/606/T1/1858</v>
       </c>
-      <c r="C7" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D7" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E7" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
       <c r="A8" t="str">
         <v>NAVJEEVAN DRUG AGENCIES[RJ0032]</v>
       </c>
       <c r="B8" t="str">
         <v>23/606/T1/1859</v>
       </c>
-      <c r="C8" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D8" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E8" t="str">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
       <c r="A9" t="str">
         <v>NAVJEEVAN DRUG AGENCIES[RJ0032]</v>
       </c>
       <c r="B9" t="str">
         <v>23/606/T1/1860</v>
       </c>
-      <c r="C9" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D9" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E9" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
         <v>NIRMALA TRADING CO.[RJ0034]</v>
       </c>
       <c r="B10" t="str">
         <v>23/606/T1/1861</v>
       </c>
-      <c r="C10" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D10" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E10" t="str">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
         <v>SINGHAL TRADERS[RJ0036]</v>
       </c>
       <c r="B11" t="str">
         <v>23/606/T1/1862</v>
       </c>
-      <c r="C11" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D11" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E11" t="str">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
       <c r="A12" t="str">
         <v>SINGHAL TRADERS[RJ0036]</v>
       </c>
       <c r="B12" t="str">
         <v>23/606/T1/1863</v>
       </c>
-      <c r="C12" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D12" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E12" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
       <c r="A13" t="str">
         <v>SINGHAL TRADERS[RJ0036]</v>
       </c>
       <c r="B13" t="str">
         <v>23/606/T1/1864</v>
       </c>
-      <c r="C13" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D13" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E13" t="str">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
         <v>SINGHAL TRADERS[RJ0036]</v>
       </c>
       <c r="B14" t="str">
         <v>23/606/T1/1865</v>
       </c>
-      <c r="C14" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D14" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E14" t="str">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
       <c r="A15" t="str">
         <v>SINGHAL TRADERS[RJ0036]</v>
       </c>
       <c r="B15" t="str">
         <v>23/606/T1/1866</v>
       </c>
-      <c r="C15" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D15" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E15" t="str">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
       <c r="A16" t="str">
         <v>SARASWATI TRADING CO[RJ0143]</v>
       </c>
       <c r="B16" t="str">
         <v>23/606/T1/1867</v>
       </c>
-      <c r="C16" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D16" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E16" t="str">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
       <c r="A17" t="str">
         <v>SARASWATI TRADING CO[RJ0143]</v>
       </c>
       <c r="B17" t="str">
         <v>23/606/T1/1868</v>
       </c>
-      <c r="C17" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D17" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E17" t="str">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
       <c r="A18" t="str">
         <v>BILASRAI &amp; CO[RJ0042]</v>
       </c>
       <c r="B18" t="str">
         <v>23/606/T1/1869</v>
       </c>
-      <c r="C18" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D18" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E18" t="str">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
       <c r="A19" t="str">
         <v>BILASRAI &amp; CO[RJ0042]</v>
       </c>
       <c r="B19" t="str">
         <v>23/606/T1/1870</v>
       </c>
-      <c r="C19" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D19" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E19" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v>BILASRAI &amp; CO[RJ0042]</v>
       </c>
       <c r="B20" t="str">
         <v>23/606/T1/1871</v>
       </c>
-      <c r="C20" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D20" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E20" t="str">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>BILASRAI &amp; CO[RJ0042]</v>
       </c>
       <c r="B21" t="str">
         <v>23/606/T1/1872</v>
       </c>
-      <c r="C21" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D21" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E21" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
       <c r="A22" t="str">
         <v>DARPAN PHARMACEUTICALS[RJ0053]</v>
       </c>
       <c r="B22" t="str">
         <v>23/606/T1/1873</v>
       </c>
-      <c r="C22" t="str">
-        <v>Dated  :19-10-2023</v>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
       </c>
       <c r="D22" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E22" t="str">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
       <c r="A23" t="str">
         <v>JAIN DISTRIBUTORS[RJ0054]</v>
       </c>
       <c r="B23" t="str">
         <v>23/606/T1/1874</v>
       </c>
-      <c r="C23" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D23" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E23" t="str">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
       <c r="A24" t="str">
         <v>JAIN DISTRIBUTORS[RJ0054]</v>
       </c>
       <c r="B24" t="str">
         <v>23/606/T1/1875</v>
       </c>
-      <c r="C24" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D24" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E24" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
       <c r="A25" t="str">
         <v>JAIN MEDICAL STORES[RJ0056]</v>
       </c>
       <c r="B25" t="str">
         <v>23/606/T1/1876</v>
       </c>
-      <c r="C25" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D25" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E25" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
         <v>JAIN MEDICAL STORES[RJ0056]</v>
       </c>
       <c r="B26" t="str">
         <v>23/606/T1/1877</v>
       </c>
-      <c r="C26" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D26" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E26" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
         <v>JAIN MEDICAL STORES[RJ0056]</v>
       </c>
       <c r="B27" t="str">
         <v>23/606/T1/1878</v>
       </c>
-      <c r="C27" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D27" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E27" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
         <v>MADHAV ENTERPRISES[RJ0058]</v>
       </c>
       <c r="B28" t="str">
         <v>23/606/T1/1879</v>
       </c>
-      <c r="C28" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D28" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E28" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
       <c r="A29" t="str">
         <v>ANOOP MEDICAL DISTRIBUTORS[RJ0067]</v>
       </c>
       <c r="B29" t="str">
         <v>23/606/T1/1880</v>
       </c>
-      <c r="C29" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D29" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E29" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
       <c r="A30" t="str">
         <v>ARIHANT PHARMA[RJ0079]</v>
       </c>
       <c r="B30" t="str">
         <v>23/606/T1/1881</v>
       </c>
-      <c r="C30" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D30" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E30" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
       <c r="A31" t="str">
         <v>DRUG CENTER &amp; GENERAL STORE[RJ0270]</v>
       </c>
       <c r="B31" t="str">
         <v>23/606/T1/1882</v>
       </c>
-      <c r="C31" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D31" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E31" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
         <v>GARG MEDICOS[RJ0085]</v>
       </c>
       <c r="B32" t="str">
         <v>23/606/T1/1883</v>
       </c>
-      <c r="C32" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D32" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E32" t="str">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
       <c r="A33" t="str">
         <v>J.K. &amp; COMPANY[RJ0089]</v>
       </c>
       <c r="B33" t="str">
         <v>23/606/T1/1884</v>
       </c>
-      <c r="C33" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D33" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E33" t="str">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
       <c r="A34" t="str">
         <v>SANKARIYA MEDICAL AGENCIES[RJ0096]</v>
       </c>
       <c r="B34" t="str">
         <v>23/606/T1/1885</v>
       </c>
-      <c r="C34" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D34" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E34" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
       <c r="A35" t="str">
         <v>SUMIT TRADERS[RJ0098]</v>
       </c>
       <c r="B35" t="str">
         <v>23/606/T1/1886</v>
       </c>
-      <c r="C35" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D35" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E35" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
       <c r="A36" t="str">
         <v>SUMIT TRADERS[RJ0098]</v>
       </c>
       <c r="B36" t="str">
         <v>23/606/T1/1887</v>
       </c>
-      <c r="C36" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D36" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E36" t="str">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
       <c r="A37" t="str">
         <v>SUMIT TRADERS[RJ0098]</v>
       </c>
       <c r="B37" t="str">
         <v>23/606/T1/1888</v>
       </c>
-      <c r="C37" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D37" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E37" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
       <c r="A38" t="str">
         <v>MEDISALES[RJ0120]</v>
       </c>
       <c r="B38" t="str">
         <v>23/606/T1/1889</v>
       </c>
-      <c r="C38" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D38" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E38" t="str">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
       <c r="A39" t="str">
         <v>MEDISALES[RJ0120]</v>
       </c>
       <c r="B39" t="str">
         <v>23/606/T1/1890</v>
       </c>
-      <c r="C39" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D39" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E39" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
       <c r="A40" t="str">
         <v>SWASTIK MEDICAL STORE[RJ0272]</v>
       </c>
       <c r="B40" t="str">
         <v>23/606/T1/1891</v>
       </c>
-      <c r="C40" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D40" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E40" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
       <c r="A41" t="str">
         <v>KRISHNA MEDICAL AGENCIES[RJ0131]</v>
       </c>
       <c r="B41" t="str">
         <v>23/606/T1/1892</v>
       </c>
-      <c r="C41" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D41" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E41" t="str">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
       <c r="A42" t="str">
         <v>KRISHNA MEDICAL AGENCIES[RJ0131]</v>
       </c>
       <c r="B42" t="str">
         <v>23/606/T1/1893</v>
       </c>
-      <c r="C42" t="str">
-        <v>Dated  :21-10-2023</v>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
       </c>
       <c r="D42" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E42" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
       <c r="A43" t="str">
         <v>DEVI PRASAD RAJENDRA KUMAR[RJ0132]</v>
       </c>
       <c r="B43" t="str">
         <v>23/606/T1/1894</v>
       </c>
-      <c r="C43" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D43" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E43" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
       <c r="A44" t="str">
         <v>DEVI PRASAD RAJENDRA KUMAR[RJ0132]</v>
       </c>
       <c r="B44" t="str">
         <v>23/606/T1/1895</v>
       </c>
-      <c r="C44" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D44" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E44" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
       <c r="A45" t="str">
         <v>DEVI PRASAD RAJENDRA KUMAR[RJ0132]</v>
       </c>
       <c r="B45" t="str">
         <v>23/606/T1/1896</v>
       </c>
-      <c r="C45" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D45" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E45" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
       <c r="A46" t="str">
         <v>DEVI PRASAD RAJENDRA KUMAR[RJ0132]</v>
       </c>
       <c r="B46" t="str">
         <v>23/606/T1/1897</v>
       </c>
-      <c r="C46" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D46" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E46" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
       <c r="A47" t="str">
         <v>DEVI PRASAD RAJENDRA KUMAR[RJ0132]</v>
       </c>
       <c r="B47" t="str">
         <v>23/606/T1/1898</v>
       </c>
-      <c r="C47" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D47" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E47" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
       <c r="A48" t="str">
         <v>JAI AMBE PHARMA[RJ0136]</v>
       </c>
       <c r="B48" t="str">
         <v>23/606/T1/1899</v>
       </c>
-      <c r="C48" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D48" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E48" t="str">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
       <c r="A49" t="str">
         <v>JAI AMBE PHARMA[RJ0136]</v>
       </c>
       <c r="B49" t="str">
         <v>23/606/T1/1900</v>
       </c>
-      <c r="C49" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D49" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E49" t="str">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
       <c r="A50" t="str">
         <v>SHANKAR MEDICAL STORE[RJ0139]</v>
       </c>
       <c r="B50" t="str">
         <v>23/606/T1/1901</v>
       </c>
-      <c r="C50" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D50" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E50" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
       <c r="A51" t="str">
         <v>SHANKAR MEDICAL STORE[RJ0139]</v>
       </c>
       <c r="B51" t="str">
         <v>23/606/T1/1902</v>
       </c>
-      <c r="C51" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D51" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E51" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
       <c r="A52" t="str">
         <v>MEDICINE CENTRE[RJ0142]</v>
       </c>
       <c r="B52" t="str">
         <v>23/606/T1/1903</v>
       </c>
-      <c r="C52" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D52" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E52" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
       <c r="A53" t="str">
         <v>MEDICINE CENTRE[RJ0142]</v>
       </c>
       <c r="B53" t="str">
         <v>23/606/T1/1904</v>
       </c>
-      <c r="C53" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D53" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E53" t="str">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
       <c r="A54" t="str">
         <v>BANSAL MEDICAL AGENCIES[RJ0144]</v>
       </c>
       <c r="B54" t="str">
         <v>23/606/T1/1905</v>
       </c>
-      <c r="C54" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D54" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E54" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
       <c r="A55" t="str">
         <v>BANSAL MEDICAL AGENCIES[RJ0144]</v>
       </c>
       <c r="B55" t="str">
         <v>23/606/T1/1906</v>
       </c>
-      <c r="C55" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D55" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E55" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
       <c r="A56" t="str">
         <v>RAJASTHAN MEDICAL STORE[RJ0148]</v>
       </c>
       <c r="B56" t="str">
         <v>23/606/T1/1907</v>
       </c>
-      <c r="C56" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D56" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E56" t="str">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
       <c r="A57" t="str">
         <v>BATRA DRUG AGENCIES[RJ0152]</v>
       </c>
       <c r="B57" t="str">
         <v>23/606/T1/1908</v>
       </c>
-      <c r="C57" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D57" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E57" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
       <c r="A58" t="str">
         <v>BATRA DRUG AGENCIES[RJ0152]</v>
       </c>
       <c r="B58" t="str">
         <v>23/606/T1/1909</v>
       </c>
-      <c r="C58" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D58" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E58" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
       <c r="A59" t="str">
         <v>PRAHLAD MEDICAL STORE[RJ0157]</v>
       </c>
       <c r="B59" t="str">
         <v>23/606/T1/1910</v>
       </c>
-      <c r="C59" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D59" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E59" t="str">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
       <c r="A60" t="str">
         <v>NUTAN AGENCIES[RJ0158]</v>
       </c>
       <c r="B60" t="str">
         <v>23/606/T1/1911</v>
       </c>
-      <c r="C60" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D60" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E60" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
       <c r="A61" t="str">
         <v>KAMLESH PHARMA[RJ0166]</v>
       </c>
       <c r="B61" t="str">
         <v>23/606/T1/1912</v>
       </c>
-      <c r="C61" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D61" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E61" t="str">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
       <c r="A62" t="str">
         <v>KAMLESH PHARMA[RJ0166]</v>
       </c>
       <c r="B62" t="str">
         <v>23/606/T1/1913</v>
       </c>
-      <c r="C62" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D62" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E62" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
       <c r="A63" t="str">
         <v>KAMLESH PHARMA[RJ0166]</v>
       </c>
       <c r="B63" t="str">
         <v>23/606/T1/1914</v>
       </c>
-      <c r="C63" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D63" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E63" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
       <c r="A64" t="str">
         <v>JANTA MEDICOS[RJ0168]</v>
       </c>
       <c r="B64" t="str">
         <v>23/606/T1/1915</v>
       </c>
-      <c r="C64" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D64" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E64" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
       <c r="A65" t="str">
         <v>GUJARAT MEDICAL AGENCIES[RJ0178]</v>
       </c>
       <c r="B65" t="str">
         <v>23/606/T1/1916</v>
       </c>
-      <c r="C65" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D65" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E65" t="str">
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" xml:space="preserve">
@@ -1517,303 +1581,321 @@
       <c r="B66" t="str">
         <v>23/606/T1/1917</v>
       </c>
-      <c r="C66" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D66" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E66" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
       <c r="A67" t="str">
         <v>AGARWAL MEDICAL HALL[RJ0188]</v>
       </c>
       <c r="B67" t="str">
         <v>23/606/T1/1918</v>
       </c>
-      <c r="C67" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D67" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E67" t="str">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
       <c r="A68" t="str">
         <v>AGARWAL MEDICAL HALL[RJ0188]</v>
       </c>
       <c r="B68" t="str">
         <v>23/606/T1/1919</v>
       </c>
-      <c r="C68" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D68" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E68" t="str">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
       <c r="A69" t="str">
         <v>BIJLANI DISTRIBUTORS[RJ0194]</v>
       </c>
       <c r="B69" t="str">
         <v>23/606/T1/1920</v>
       </c>
-      <c r="C69" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D69" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E69" t="str">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
       <c r="A70" t="str">
         <v>BIJLANI DISTRIBUTORS[RJ0194]</v>
       </c>
       <c r="B70" t="str">
         <v>23/606/T1/1921</v>
       </c>
-      <c r="C70" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D70" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E70" t="str">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
       <c r="A71" t="str">
         <v>BIJLANI DISTRIBUTORS[RJ0194]</v>
       </c>
       <c r="B71" t="str">
         <v>23/606/T1/1922</v>
       </c>
-      <c r="C71" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D71" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E71" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
       <c r="A72" t="str">
         <v>RAJASTHAN MEDICAL AGENCIES[RJ0198]</v>
       </c>
       <c r="B72" t="str">
         <v>23/606/T1/1923</v>
       </c>
-      <c r="C72" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D72" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E72" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
       <c r="A73" t="str">
         <v>RAJESH PHARMA PVT.LTD[RJ0204]</v>
       </c>
       <c r="B73" t="str">
         <v>23/606/T1/1924</v>
       </c>
-      <c r="C73" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D73" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E73" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
       <c r="A74" t="str">
         <v>RAJESH PHARMA PVT.LTD[RJ0204]</v>
       </c>
       <c r="B74" t="str">
         <v>23/606/T1/1925</v>
       </c>
-      <c r="C74" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D74" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E74" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
         <v>RAJESH PHARMA PVT.LTD[RJ0204]</v>
       </c>
       <c r="B75" t="str">
         <v>23/606/T1/1926</v>
       </c>
-      <c r="C75" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D75" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E75" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
       <c r="A76" t="str">
         <v>RAJESH PHARMA PVT.LTD[RJ0204]</v>
       </c>
       <c r="B76" t="str">
         <v>23/606/T1/1927</v>
       </c>
-      <c r="C76" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D76" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E76" t="str">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
       <c r="A77" t="str">
         <v>RAJESH PHARMA PVT.LTD[RJ0204]</v>
       </c>
       <c r="B77" t="str">
         <v>23/606/T1/1928</v>
       </c>
-      <c r="C77" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D77" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E77" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
       <c r="A78" t="str">
         <v>DEEPMALA  MEDICALS[RJ0230]</v>
       </c>
       <c r="B78" t="str">
         <v>23/606/T1/1929</v>
       </c>
-      <c r="C78" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D78" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E78" t="str">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
       <c r="A79" t="str">
         <v>DEEPMALA  MEDICALS[RJ0230]</v>
       </c>
       <c r="B79" t="str">
         <v>23/606/T1/1930</v>
       </c>
-      <c r="C79" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D79" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E79" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
         <v>DEEPMALA  MEDICALS[RJ0230]</v>
       </c>
       <c r="B80" t="str">
         <v>23/606/T1/1931</v>
       </c>
-      <c r="C80" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D80" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E80" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
       <c r="A81" t="str">
         <v>SHRI GANESH MEDICAL STORE[RJ0231]</v>
       </c>
       <c r="B81" t="str">
         <v>23/606/T1/1932</v>
       </c>
-      <c r="C81" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D81" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E81" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
       <c r="A82" t="str">
         <v>SHRI GANESH MEDICAL STORE[RJ0231]</v>
       </c>
       <c r="B82" t="str">
         <v>23/606/T1/1933</v>
       </c>
-      <c r="C82" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D82" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E82" t="str">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
       <c r="A83" t="str">
         <v>SHRI GANESH MEDICAL STORE[RJ0231]</v>
       </c>
       <c r="B83" t="str">
         <v>23/606/T1/1934</v>
       </c>
-      <c r="C83" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D83" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E83" t="str">
-        <v>43</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="84" xml:space="preserve">
@@ -1824,133 +1906,141 @@
       <c r="B84" t="str">
         <v>23/606/T1/1935</v>
       </c>
-      <c r="C84" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D84" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E84" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
       <c r="A85" t="str">
         <v>VEENUS PHARMA[RJ0241]</v>
       </c>
       <c r="B85" t="str">
         <v>23/606/T1/1936</v>
       </c>
-      <c r="C85" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D85" t="str">
         <v>QPSASPGEL202209</v>
       </c>
       <c r="E85" t="str">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
       <c r="A86" t="str">
         <v>VEENUS PHARMA[RJ0241]</v>
       </c>
       <c r="B86" t="str">
         <v>23/606/T1/1937</v>
       </c>
-      <c r="C86" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D86" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E86" t="str">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
       <c r="A87" t="str">
         <v>WHITE PHARMA[RJ0242]</v>
       </c>
       <c r="B87" t="str">
         <v>23/606/T1/1938</v>
       </c>
-      <c r="C87" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D87" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E87" t="str">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
       <c r="A88" t="str">
         <v>ANNAPURNA MEDICOSE[RJ0252]</v>
       </c>
       <c r="B88" t="str">
         <v>23/606/T1/1939</v>
       </c>
-      <c r="C88" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D88" t="str">
         <v>QPSASPGEL202207</v>
       </c>
       <c r="E88" t="str">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
       <c r="A89" t="str">
         <v>ANNAPURNA MEDICOSE[RJ0252]</v>
       </c>
       <c r="B89" t="str">
         <v>23/606/T1/1940</v>
       </c>
-      <c r="C89" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D89" t="str">
         <v>QPSASPGEL202208</v>
       </c>
       <c r="E89" t="str">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
       <c r="A90" t="str">
         <v>ANNAPURNA MEDICOSE[RJ0252]</v>
       </c>
       <c r="B90" t="str">
         <v>23/606/T1/1941</v>
       </c>
-      <c r="C90" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D90" t="str">
         <v>QPSASPGEL202210</v>
       </c>
       <c r="E90" t="str">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
       <c r="A91" t="str">
         <v>ANNAPURNA MEDICOSE[RJ0252]</v>
       </c>
       <c r="B91" t="str">
         <v>23/606/T1/1942</v>
       </c>
-      <c r="C91" t="str">
-        <v>Dated  :22-10-2023</v>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">:22-10-2023
+LR No.</v>
       </c>
       <c r="D91" t="str">
         <v>QPSASPGEL202211</v>
       </c>
       <c r="E91" t="str">
-        <v>61</v>
+        <v>6100</v>
       </c>
     </row>
   </sheetData>
